--- a/main/Perturb/log/tables/table5.xlsx
+++ b/main/Perturb/log/tables/table5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab_codes\FEM\FiniteElemntMethod\working\Perturb\log\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Py\FiniteElementMethod\main\Perturb\log\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F712FA-9A9C-49E1-A38F-D2BC69FFD31C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B605EC4-685C-455C-9F0A-EDD331D3B682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="2304" windowWidth="16584" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3924" yWindow="2136" windowWidth="16548" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -455,7 +455,7 @@
   <dimension ref="A1:AQ24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
